--- a/output_by_subject/CB303.xlsx
+++ b/output_by_subject/CB303.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3281,6 +3281,72 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1901CB33</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CB303</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1901CB40</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CB303</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1901CB43</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CB303</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
